--- a/2.Design/Template/Thong_tin_chitiet_yeucauxuatkho.xlsx
+++ b/2.Design/Template/Thong_tin_chitiet_yeucauxuatkho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBD976A-858D-424D-9C2B-FADDD45B9987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AEA9CB-ABF7-44A8-BFEB-009EE55062A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,11 +245,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -572,7 +572,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,23 +584,23 @@
     <col min="5" max="6" width="9.7265625" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.54296875" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.36328125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" style="4" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
@@ -639,25 +639,25 @@
       <c r="B4" s="14"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">

--- a/2.Design/Template/Thong_tin_chitiet_yeucauxuatkho.xlsx
+++ b/2.Design/Template/Thong_tin_chitiet_yeucauxuatkho.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AEA9CB-ABF7-44A8-BFEB-009EE55062A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B84E7D-58EB-46CB-ABAA-9C2E79D3685A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,7 +579,7 @@
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="1"/>
     <col min="2" max="2" width="18.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="33.08984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="33.54296875" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.54296875" style="4" customWidth="1"/>
     <col min="5" max="6" width="9.7265625" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.54296875" style="4" customWidth="1"/>
